--- a/tamil_biology/XIth_BIO-BOTANY_TM_Combined-Page_326-336.xlsx
+++ b/tamil_biology/XIth_BIO-BOTANY_TM_Combined-Page_326-336.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\git\tvmani.github.io\tamil_biology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E413F54C-11C6-4967-B3A0-D706E7474289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEAFD13-7107-4357-BF70-368123CAF462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="791">
   <si>
     <t>question_no</t>
   </si>
@@ -1688,9 +1688,6 @@
     <t>மேற்கண்டவற்றுள் ஏதுமில்லை</t>
   </si>
   <si>
-    <t>ஒரு தாவரசெல்லினை கரைச லில் வைக்கும்போது பிளாஸ்மா சிதைவுமீட்சி நடைபெற்றால் அக்கரைசலின் செறிவு</t>
-  </si>
-  <si>
     <t>CPMT-UP</t>
   </si>
   <si>
@@ -2386,13 +2383,34 @@
   </si>
   <si>
     <t>option_5</t>
+  </si>
+  <si>
+    <t>topic_name</t>
+  </si>
+  <si>
+    <t>உயிரி உலகின் பன்முகத் தன்மை</t>
+  </si>
+  <si>
+    <t>தாவர புறஅமைப்பியல் மற்றும் மூடுவிதைத் தாவரங்களின் வகைப்பாடு</t>
+  </si>
+  <si>
+    <t>செல் உயிரியல் மற்றும் உயிரி மூலக்கூறுகள்</t>
+  </si>
+  <si>
+    <t>தாவர உள்ளமைப்பியல்</t>
+  </si>
+  <si>
+    <t>தாவர செயலியல்</t>
+  </si>
+  <si>
+    <t>செல்லின் உட்புறத்தே காணப்படுகின்ற கரைசல்?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2411,6 +2429,12 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2434,18 +2458,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2468,6 +2538,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2483,19 +2554,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table12456789" displayName="Table12456789" ref="A1:K162" totalsRowShown="0" headerRowDxfId="0">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="question_no"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="question"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="exams_already_asked"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="year"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="option_1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="option_2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="option_3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="option_4"/>
-    <tableColumn id="11" xr3:uid="{9985C6CC-099E-4001-9677-29AAD3AC261B}" name="option_5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="correct_answer"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Page"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table12456789" displayName="Table12456789" ref="A1:L162" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="question_no" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="question" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="exams_already_asked" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="year" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="option_1" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="option_2" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="option_3" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="option_4" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{9985C6CC-099E-4001-9677-29AAD3AC261B}" name="option_5" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="correct_answer" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Page" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{7B4C4615-8939-46A3-8CAE-FD9DC3C60063}" name="topic_name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2822,13 +2894,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2940,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -2862,5113 +2948,5738 @@
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="L1" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>2017</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="L2" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>2017</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="L3" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>2017</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="L4" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>2015</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="L5" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2017</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="L6" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2015</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="L7" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>2017</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="L8" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>2014</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="L9" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>2017</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>3</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="L10" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>2017</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>3</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="L11" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>2017</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>3</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="L12" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>2017</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
         <v>4</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="L13" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>2017</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>2</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="L14" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>2017</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
         <v>2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="L15" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>2016</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
         <v>4</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="L16" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>2016</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <v>4</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="L17" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>2012</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
         <v>3</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="L18" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>2016</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
         <v>1</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="L19" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>2013</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
         <v>2</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="L20" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>2012</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J21">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
         <v>2</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="L21" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>2016</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J22">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
         <v>1</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="L22" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>2016</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
         <v>3</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="L23" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>2007</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="L24" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>2005</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
         <v>2</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="L25" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>2016</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J26">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
         <v>4</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="L26" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>2016</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
         <v>3</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="L27" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>2016</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J28">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
         <v>4</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="L28" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>2016</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J29">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
         <v>2</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="L29" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <v>2016</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J30">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
         <v>3</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="L30" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>2015</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J31">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4">
         <v>2</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="L31" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>2015</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J32">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
         <v>3</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="L32" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>2015</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J33">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
         <v>1</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="L33" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
         <v>3</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="L34" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>2014</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J35">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4">
         <v>4</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="L35" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>2014</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="J36">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
         <v>3</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="L36" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>2014</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="J37">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
         <v>2</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="L37" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>2014</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4">
         <v>2</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="L38" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>2014</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
         <v>4</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="L39" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <v>2014</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
         <v>1</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="L40" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <v>2013</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
         <v>4</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="L41" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <v>2012</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="J42" s="3">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4">
         <v>2</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="L42" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E43" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J43">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4">
         <v>3</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="L43" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="4">
         <v>2014</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J44">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4">
         <v>1</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="L44" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
         <v>2012</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J45">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4">
         <v>2</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="L45" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <v>2012</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="J46">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4">
         <v>3</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="L46" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E47" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="J47">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4">
         <v>4</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="L47" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="4">
         <v>2012</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J48">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4">
         <v>3</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="L48" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E49" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="J49">
+      <c r="I49" s="4"/>
+      <c r="J49" s="4">
         <v>1</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="L49" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="4">
         <v>2011</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J50">
+      <c r="I50" s="4"/>
+      <c r="J50" s="4">
         <v>4</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="L50" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>2011</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J51">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4">
         <v>2</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="L51" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="J52">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4">
         <v>3</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="L52" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
         <v>2009</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="J53">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4">
         <v>2</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="L53" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="4">
         <v>2007</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="J54">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4">
         <v>1</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="L54" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="4">
         <v>2007</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="J55">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4">
         <v>4</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="L55" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="4">
         <v>2006</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="J56">
+      <c r="I56" s="4"/>
+      <c r="J56" s="4">
         <v>1</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="L56" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="4">
         <v>2005</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J57">
+      <c r="I57" s="4"/>
+      <c r="J57" s="4">
         <v>2</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="L57" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="4">
         <v>2012</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="J58">
+      <c r="I58" s="4"/>
+      <c r="J58" s="4">
         <v>2</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="L58" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="4">
         <v>2012</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="J59">
+      <c r="I59" s="4"/>
+      <c r="J59" s="4">
         <v>2</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="L59" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="4">
         <v>2008</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="J60">
+      <c r="I60" s="4"/>
+      <c r="J60" s="4">
         <v>4</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="L60" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="4">
         <v>2013</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="J61">
+      <c r="I61" s="4"/>
+      <c r="J61" s="4">
         <v>1</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="L61" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="4">
         <v>2013</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="J62">
+      <c r="I62" s="4"/>
+      <c r="J62" s="4">
         <v>2</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="L62" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="4">
         <v>2010</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="J63">
+      <c r="I63" s="4"/>
+      <c r="J63" s="4">
         <v>3</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="L63" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="4">
         <v>2005</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="J64">
+      <c r="I64" s="4"/>
+      <c r="J64" s="4">
         <v>4</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="L64" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="4">
         <v>2002</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="J65">
+      <c r="I65" s="4"/>
+      <c r="J65" s="4">
         <v>2</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="L65" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="4">
         <v>2010</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="J66">
+      <c r="I66" s="4"/>
+      <c r="J66" s="4">
         <v>1</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="L66" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E67" t="s">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="J67">
+      <c r="I67" s="4"/>
+      <c r="J67" s="4">
         <v>3</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="L67" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="4">
         <v>2005</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="J68">
+      <c r="I68" s="4"/>
+      <c r="J68" s="4">
         <v>4</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="L68" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="4">
         <v>2010</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="J69">
+      <c r="I69" s="4"/>
+      <c r="J69" s="4">
         <v>2</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="L69" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="4">
         <v>2016</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="J70">
+      <c r="I70" s="4"/>
+      <c r="J70" s="4">
         <v>3</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="L70" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="4">
         <v>2016</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="J71">
+      <c r="I71" s="4"/>
+      <c r="J71" s="4">
         <v>1</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="L71" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="4">
         <v>2015</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="J72">
+      <c r="I72" s="4"/>
+      <c r="J72" s="4">
         <v>3</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="L72" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="4">
         <v>2014</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="J73">
+      <c r="I73" s="4"/>
+      <c r="J73" s="4">
         <v>3</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="L73" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="4">
         <v>2010</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="J74">
+      <c r="I74" s="4"/>
+      <c r="J74" s="4">
         <v>3</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="L74" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="E75" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="J75">
+      <c r="I75" s="4"/>
+      <c r="J75" s="4">
         <v>3</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="L75" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="4">
         <v>2008</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="J76">
+      <c r="I76" s="4"/>
+      <c r="J76" s="4">
         <v>4</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="L76" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="4">
         <v>2009</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="J77">
+      <c r="I77" s="4"/>
+      <c r="J77" s="4">
         <v>2</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="L77" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="4">
         <v>2009</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="J78">
+      <c r="I78" s="4"/>
+      <c r="J78" s="4">
         <v>1</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="L78" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="4">
         <v>2009</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="J79">
+      <c r="I79" s="4"/>
+      <c r="J79" s="4">
         <v>4</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="L79" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="J80">
+      <c r="I80" s="4"/>
+      <c r="J80" s="4">
         <v>2</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="L80" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="4">
         <v>2008</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="J81">
+      <c r="I81" s="4"/>
+      <c r="J81" s="4">
         <v>4</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="L81" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="4">
         <v>2007</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="J82">
+      <c r="I82" s="4"/>
+      <c r="J82" s="4">
         <v>1</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="L82" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="4">
         <v>2010</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="J83">
+      <c r="I83" s="4"/>
+      <c r="J83" s="4">
         <v>3</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="L83" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="4">
         <v>2007</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="J84">
+      <c r="I84" s="4"/>
+      <c r="J84" s="4">
         <v>1</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="L84" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="4">
         <v>2004</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="J85">
+      <c r="I85" s="4"/>
+      <c r="J85" s="4">
         <v>1</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="4">
         <v>331</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="L85" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="4">
         <v>2003</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="J86">
+      <c r="I86" s="4"/>
+      <c r="J86" s="4">
         <v>1</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="L86" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="4">
         <v>2000</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="J87">
+      <c r="I87" s="4"/>
+      <c r="J87" s="4">
         <v>3</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="L87" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="4">
         <v>2016</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="J88">
+      <c r="I88" s="4"/>
+      <c r="J88" s="4">
         <v>4</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="L88" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="4">
         <v>2016</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="J91">
+      <c r="I91" s="4"/>
+      <c r="J91" s="4">
         <v>1</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="L91" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="4">
         <v>2016</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="J92">
+      <c r="I92" s="4"/>
+      <c r="J92" s="4">
         <v>3</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="L92" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="4">
         <v>2013</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="J93">
+      <c r="I93" s="4"/>
+      <c r="J93" s="4">
         <v>2</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="L93" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="4">
         <v>2012</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="J94">
+      <c r="I94" s="4"/>
+      <c r="J94" s="4">
         <v>3</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="L94" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="4">
         <v>2011</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="J95">
+      <c r="I95" s="4"/>
+      <c r="J95" s="4">
         <v>3</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="L95" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="4">
         <v>2011</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="J96">
+      <c r="I96" s="4"/>
+      <c r="J96" s="4">
         <v>4</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="L96" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="4">
         <v>2017</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="J97">
+      <c r="I97" s="4"/>
+      <c r="J97" s="4">
         <v>3</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="L97" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="4">
         <v>2017</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="J98">
+      <c r="I98" s="4"/>
+      <c r="J98" s="4">
         <v>3</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="L98" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="4">
         <v>2012</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="J99">
+      <c r="I99" s="4"/>
+      <c r="J99" s="4">
         <v>3</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="L99" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="4">
         <v>2017</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="J100">
+      <c r="I100" s="4"/>
+      <c r="J100" s="4">
         <v>4</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="L100" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="4">
         <v>2015</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="J101">
+      <c r="I101" s="4"/>
+      <c r="J101" s="4">
         <v>2</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="L101" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="4">
         <v>2000</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="J102">
+      <c r="I102" s="4"/>
+      <c r="J102" s="4">
         <v>1</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="L102" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="4">
         <v>2001</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="J103">
+      <c r="I103" s="4"/>
+      <c r="J103" s="4">
         <v>2</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="L103" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="4">
         <v>2002</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="J104">
+      <c r="I104" s="4"/>
+      <c r="J104" s="4">
         <v>2</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="L104" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="4">
         <v>2002</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="J105">
+      <c r="I105" s="4"/>
+      <c r="J105" s="4">
         <v>3</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="L105" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="4">
         <v>2006</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="J106">
+      <c r="I106" s="4"/>
+      <c r="J106" s="4">
         <v>1</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="L106" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="4">
         <v>2015</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="J107">
+      <c r="I107" s="4"/>
+      <c r="J107" s="4">
         <v>2</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="L107" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="4">
         <v>1998</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="J108">
+      <c r="I108" s="4"/>
+      <c r="J108" s="4">
         <v>1</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="L108" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="4">
         <v>2002</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="J109">
+      <c r="I109" s="4"/>
+      <c r="J109" s="4">
         <v>2</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="L109" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="4">
         <v>2002</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="J110">
+      <c r="I110" s="4"/>
+      <c r="J110" s="4">
         <v>2</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="L110" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="4">
         <v>2003</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="J111">
+      <c r="I111" s="4"/>
+      <c r="J111" s="4">
         <v>1</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="L111" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="4">
         <v>2000</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="J112">
+      <c r="I112" s="4"/>
+      <c r="J112" s="4">
         <v>2</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="L112" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="J113">
+      <c r="I113" s="4"/>
+      <c r="J113" s="4">
         <v>1</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="4">
         <v>333</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="L113" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" s="4">
+        <v>1996</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="D114">
-        <v>1996</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="F114" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" s="4"/>
+      <c r="J114" s="4">
+        <v>4</v>
+      </c>
+      <c r="K114" s="4">
+        <v>333</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="J114">
+      <c r="C115" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D115" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4">
+        <v>3</v>
+      </c>
+      <c r="K115" s="4">
+        <v>333</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D116" s="4">
+        <v>2007</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4">
+        <v>1</v>
+      </c>
+      <c r="K116" s="4">
+        <v>334</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D117" s="4">
+        <v>2006</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4">
+        <v>4</v>
+      </c>
+      <c r="K117" s="4">
+        <v>334</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D118" s="4">
+        <v>2006</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4">
+        <v>1</v>
+      </c>
+      <c r="K118" s="4">
+        <v>334</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D119" s="4">
+        <v>2008</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4">
+        <v>4</v>
+      </c>
+      <c r="K119" s="4">
+        <v>334</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4">
         <v>2</v>
       </c>
-      <c r="K114">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="K120" s="4">
+        <v>334</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D121" s="4">
+        <v>2007</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4">
+        <v>4</v>
+      </c>
+      <c r="K121" s="4">
+        <v>334</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D122" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4">
+        <v>4</v>
+      </c>
+      <c r="K122" s="4">
+        <v>334</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="4">
+        <v>2014</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4">
+        <v>2</v>
+      </c>
+      <c r="K123" s="4">
+        <v>334</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="4">
+        <v>2013</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4">
+        <v>4</v>
+      </c>
+      <c r="K124" s="4">
+        <v>334</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2010</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4">
+        <v>2</v>
+      </c>
+      <c r="K125" s="4">
+        <v>334</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D126" s="4">
+        <v>1980</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4">
+        <v>2</v>
+      </c>
+      <c r="K126" s="4">
+        <v>334</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D127" s="4">
+        <v>1993</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4">
+        <v>2</v>
+      </c>
+      <c r="K127" s="4">
+        <v>334</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="4">
+        <v>2004</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4">
+        <v>4</v>
+      </c>
+      <c r="K128" s="4">
+        <v>334</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" s="4">
+        <v>2008</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4">
+        <v>1</v>
+      </c>
+      <c r="K129" s="4">
+        <v>334</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="4">
+        <v>2010</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4">
+        <v>4</v>
+      </c>
+      <c r="K130" s="4">
+        <v>334</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2007</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4">
+        <v>4</v>
+      </c>
+      <c r="K131" s="4">
+        <v>334</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" s="4">
+        <v>2005</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4">
+        <v>1</v>
+      </c>
+      <c r="K132" s="4">
+        <v>335</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4">
+        <v>2</v>
+      </c>
+      <c r="K133" s="4">
+        <v>335</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4">
+        <v>3</v>
+      </c>
+      <c r="K134" s="4">
+        <v>335</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D135" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4">
+        <v>1</v>
+      </c>
+      <c r="K135" s="4">
+        <v>335</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D136" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4">
+        <v>1</v>
+      </c>
+      <c r="K136" s="4">
+        <v>335</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C115" t="s">
-        <v>559</v>
-      </c>
-      <c r="D115">
+      <c r="D137" s="4">
         <v>2016</v>
       </c>
-      <c r="E115" t="s">
-        <v>560</v>
-      </c>
-      <c r="F115" t="s">
-        <v>561</v>
-      </c>
-      <c r="G115" t="s">
-        <v>562</v>
-      </c>
-      <c r="H115" t="s">
-        <v>563</v>
-      </c>
-      <c r="J115">
+      <c r="E137" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4">
         <v>3</v>
       </c>
-      <c r="K115">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="K137" s="4">
+        <v>335</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D138" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4">
+        <v>1</v>
+      </c>
+      <c r="K138" s="4">
+        <v>335</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4">
+        <v>4</v>
+      </c>
+      <c r="K139" s="4">
+        <v>335</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4">
+        <v>4</v>
+      </c>
+      <c r="K140" s="4">
+        <v>335</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4">
+        <v>3</v>
+      </c>
+      <c r="K141" s="4">
+        <v>335</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4">
+        <v>335</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="4">
+        <v>2010</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4">
+        <v>2</v>
+      </c>
+      <c r="K143" s="4">
+        <v>335</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1980</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4">
+        <v>2</v>
+      </c>
+      <c r="K144" s="4">
+        <v>336</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1980</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4">
+        <v>3</v>
+      </c>
+      <c r="K145" s="4">
+        <v>336</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1984</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4">
+        <v>1</v>
+      </c>
+      <c r="K146" s="4">
+        <v>336</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D116">
-        <v>2007</v>
-      </c>
-      <c r="E116" t="s">
-        <v>565</v>
-      </c>
-      <c r="F116" t="s">
-        <v>566</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="I116" s="3"/>
-      <c r="J116">
+      <c r="D147" s="4">
+        <v>1984</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4">
+        <v>3</v>
+      </c>
+      <c r="K147" s="4">
+        <v>336</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1989</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4">
+        <v>4</v>
+      </c>
+      <c r="K148" s="4">
+        <v>336</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D149" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4">
+        <v>2</v>
+      </c>
+      <c r="K149" s="4">
+        <v>336</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="D150" s="4">
+        <v>2003</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4">
+        <v>4</v>
+      </c>
+      <c r="K150" s="4">
+        <v>336</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D151" s="4">
+        <v>2004</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4">
         <v>1</v>
       </c>
-      <c r="K116">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C117" t="s">
-        <v>570</v>
-      </c>
-      <c r="D117">
-        <v>2006</v>
-      </c>
-      <c r="E117" t="s">
-        <v>571</v>
-      </c>
-      <c r="F117" t="s">
-        <v>572</v>
-      </c>
-      <c r="G117" t="s">
-        <v>573</v>
-      </c>
-      <c r="H117" t="s">
-        <v>574</v>
-      </c>
-      <c r="J117">
+      <c r="K151" s="4">
+        <v>336</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D152" s="4">
+        <v>2004</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4">
+        <v>3</v>
+      </c>
+      <c r="K152" s="4">
+        <v>336</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4">
+        <v>1</v>
+      </c>
+      <c r="K153" s="4">
+        <v>336</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" s="4">
+        <v>2004</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4">
+        <v>2</v>
+      </c>
+      <c r="K154" s="4">
+        <v>336</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="D155" s="4">
+        <v>2009</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4">
+        <v>1</v>
+      </c>
+      <c r="K155" s="4">
+        <v>336</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="4">
+        <v>2010</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4">
+        <v>2</v>
+      </c>
+      <c r="K156" s="4">
+        <v>336</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" s="4">
+        <v>2010</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4">
+        <v>3</v>
+      </c>
+      <c r="K157" s="4">
+        <v>336</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" s="4">
+        <v>2010</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4">
+        <v>1</v>
+      </c>
+      <c r="K158" s="4">
+        <v>336</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" s="4">
+        <v>2008</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4">
         <v>4</v>
       </c>
-      <c r="K117">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C118" t="s">
-        <v>570</v>
-      </c>
-      <c r="D118">
-        <v>2006</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="I118" s="3"/>
-      <c r="J118">
+      <c r="K159" s="4">
+        <v>336</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4">
+        <v>3</v>
+      </c>
+      <c r="K160" s="4">
+        <v>336</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4">
         <v>1</v>
       </c>
-      <c r="K118">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="C119" t="s">
-        <v>280</v>
-      </c>
-      <c r="D119">
-        <v>2008</v>
-      </c>
-      <c r="E119" t="s">
-        <v>581</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="I119" s="3"/>
-      <c r="J119">
+      <c r="K161" s="4">
+        <v>336</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4">
         <v>4</v>
       </c>
-      <c r="K119">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3">
-        <v>2</v>
-      </c>
-      <c r="K120">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="D121">
-        <v>2007</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3">
-        <v>4</v>
-      </c>
-      <c r="K121">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>596</v>
-      </c>
-      <c r="C122" t="s">
-        <v>597</v>
-      </c>
-      <c r="D122">
-        <v>2011</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3">
-        <v>4</v>
-      </c>
-      <c r="K122">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C123" t="s">
-        <v>27</v>
-      </c>
-      <c r="D123">
-        <v>2014</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3">
-        <v>2</v>
-      </c>
-      <c r="K123">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C124" t="s">
-        <v>27</v>
-      </c>
-      <c r="D124">
-        <v>2013</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3">
-        <v>4</v>
-      </c>
-      <c r="K124">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D125" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3">
-        <v>2</v>
-      </c>
-      <c r="K125">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D126" s="3">
-        <v>1980</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3">
-        <v>2</v>
-      </c>
-      <c r="K126">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D127" s="3">
-        <v>1993</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3">
-        <v>2</v>
-      </c>
-      <c r="K127">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="3">
-        <v>2004</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3">
-        <v>4</v>
-      </c>
-      <c r="K128">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D129" s="3">
-        <v>2008</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3">
-        <v>1</v>
-      </c>
-      <c r="K129">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D130" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3">
-        <v>4</v>
-      </c>
-      <c r="K130">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="D131" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3">
-        <v>4</v>
-      </c>
-      <c r="K131">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D132" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3">
-        <v>1</v>
-      </c>
-      <c r="K132">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3">
-        <v>2</v>
-      </c>
-      <c r="K133">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3">
-        <v>3</v>
-      </c>
-      <c r="K134">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D135" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3">
-        <v>1</v>
-      </c>
-      <c r="K135">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D136" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3">
-        <v>1</v>
-      </c>
-      <c r="K136">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="D137" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3">
-        <v>3</v>
-      </c>
-      <c r="K137">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D138" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3">
-        <v>1</v>
-      </c>
-      <c r="K138">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3">
-        <v>4</v>
-      </c>
-      <c r="K139">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3">
-        <v>4</v>
-      </c>
-      <c r="K140">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C141" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3">
-        <v>3</v>
-      </c>
-      <c r="K141">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="K142">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C143" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E143" t="s">
-        <v>696</v>
-      </c>
-      <c r="F143" t="s">
-        <v>697</v>
-      </c>
-      <c r="G143" t="s">
-        <v>698</v>
-      </c>
-      <c r="H143" t="s">
-        <v>699</v>
-      </c>
-      <c r="J143" s="3">
-        <v>2</v>
-      </c>
-      <c r="K143">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="C144" t="s">
-        <v>701</v>
-      </c>
-      <c r="D144" s="3">
-        <v>1980</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3">
-        <v>2</v>
-      </c>
-      <c r="K144">
+      <c r="K162" s="4">
         <v>336</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>706</v>
-      </c>
-      <c r="C145" t="s">
-        <v>701</v>
-      </c>
-      <c r="D145" s="3">
-        <v>1980</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3">
-        <v>3</v>
-      </c>
-      <c r="K145">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="C146" t="s">
-        <v>701</v>
-      </c>
-      <c r="D146">
-        <v>1984</v>
-      </c>
-      <c r="E146" t="s">
-        <v>696</v>
-      </c>
-      <c r="F146" t="s">
-        <v>712</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3">
-        <v>1</v>
-      </c>
-      <c r="K146">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>714</v>
-      </c>
-      <c r="C147" t="s">
-        <v>254</v>
-      </c>
-      <c r="D147">
-        <v>1984</v>
-      </c>
-      <c r="E147" t="s">
-        <v>715</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3">
-        <v>3</v>
-      </c>
-      <c r="K147">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C148" t="s">
-        <v>254</v>
-      </c>
-      <c r="D148">
-        <v>1989</v>
-      </c>
-      <c r="E148" t="s">
-        <v>720</v>
-      </c>
-      <c r="F148" t="s">
-        <v>721</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3">
-        <v>4</v>
-      </c>
-      <c r="K148">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C149" t="s">
-        <v>725</v>
-      </c>
-      <c r="D149">
-        <v>2000</v>
-      </c>
-      <c r="E149" t="s">
-        <v>726</v>
-      </c>
-      <c r="F149" t="s">
-        <v>727</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="H149" t="s">
-        <v>729</v>
-      </c>
-      <c r="J149" s="3">
-        <v>2</v>
-      </c>
-      <c r="K149">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>730</v>
-      </c>
-      <c r="C150" t="s">
-        <v>731</v>
-      </c>
-      <c r="D150">
-        <v>2003</v>
-      </c>
-      <c r="E150" t="s">
-        <v>732</v>
-      </c>
-      <c r="F150" t="s">
-        <v>733</v>
-      </c>
-      <c r="G150" t="s">
-        <v>734</v>
-      </c>
-      <c r="H150" t="s">
-        <v>735</v>
-      </c>
-      <c r="J150" s="3">
-        <v>4</v>
-      </c>
-      <c r="K150">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="C151" t="s">
-        <v>280</v>
-      </c>
-      <c r="D151">
-        <v>2004</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="F151" t="s">
-        <v>738</v>
-      </c>
-      <c r="G151" t="s">
-        <v>636</v>
-      </c>
-      <c r="H151" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3">
-        <v>1</v>
-      </c>
-      <c r="K151">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C152" t="s">
-        <v>254</v>
-      </c>
-      <c r="D152">
-        <v>2004</v>
-      </c>
-      <c r="E152" t="s">
-        <v>727</v>
-      </c>
-      <c r="F152" t="s">
-        <v>741</v>
-      </c>
-      <c r="G152" t="s">
-        <v>742</v>
-      </c>
-      <c r="H152" t="s">
-        <v>735</v>
-      </c>
-      <c r="J152" s="3">
-        <v>3</v>
-      </c>
-      <c r="K152">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="D153" t="s">
-        <v>745</v>
-      </c>
-      <c r="E153" t="s">
-        <v>746</v>
-      </c>
-      <c r="F153" t="s">
-        <v>727</v>
-      </c>
-      <c r="G153" t="s">
-        <v>733</v>
-      </c>
-      <c r="H153" t="s">
-        <v>735</v>
-      </c>
-      <c r="J153" s="3">
-        <v>1</v>
-      </c>
-      <c r="K153">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>747</v>
-      </c>
-      <c r="C154" t="s">
-        <v>27</v>
-      </c>
-      <c r="D154">
-        <v>2004</v>
-      </c>
-      <c r="E154" t="s">
-        <v>748</v>
-      </c>
-      <c r="F154" t="s">
-        <v>749</v>
-      </c>
-      <c r="G154" t="s">
-        <v>742</v>
-      </c>
-      <c r="H154" t="s">
-        <v>750</v>
-      </c>
-      <c r="J154" s="3">
-        <v>2</v>
-      </c>
-      <c r="K154">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C155" t="s">
-        <v>752</v>
-      </c>
-      <c r="D155">
-        <v>2009</v>
-      </c>
-      <c r="E155" t="s">
-        <v>753</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="H155" t="s">
-        <v>756</v>
-      </c>
-      <c r="J155" s="3">
-        <v>1</v>
-      </c>
-      <c r="K155">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="C156" t="s">
-        <v>27</v>
-      </c>
-      <c r="D156">
-        <v>2010</v>
-      </c>
-      <c r="E156" t="s">
-        <v>758</v>
-      </c>
-      <c r="F156" t="s">
-        <v>759</v>
-      </c>
-      <c r="G156" t="s">
-        <v>760</v>
-      </c>
-      <c r="H156" t="s">
-        <v>163</v>
-      </c>
-      <c r="J156" s="3">
-        <v>2</v>
-      </c>
-      <c r="K156">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="C157" t="s">
-        <v>27</v>
-      </c>
-      <c r="D157">
-        <v>2010</v>
-      </c>
-      <c r="E157" t="s">
-        <v>753</v>
-      </c>
-      <c r="F157" t="s">
-        <v>729</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="H157" t="s">
-        <v>729</v>
-      </c>
-      <c r="J157" s="3">
-        <v>3</v>
-      </c>
-      <c r="K157">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>763</v>
-      </c>
-      <c r="C158" t="s">
-        <v>27</v>
-      </c>
-      <c r="D158">
-        <v>2010</v>
-      </c>
-      <c r="E158" t="s">
-        <v>746</v>
-      </c>
-      <c r="F158" t="s">
-        <v>764</v>
-      </c>
-      <c r="G158" t="s">
-        <v>727</v>
-      </c>
-      <c r="H158" t="s">
-        <v>753</v>
-      </c>
-      <c r="J158" s="3">
-        <v>1</v>
-      </c>
-      <c r="K158">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="C159" t="s">
-        <v>27</v>
-      </c>
-      <c r="D159">
-        <v>2008</v>
-      </c>
-      <c r="E159" t="s">
-        <v>766</v>
-      </c>
-      <c r="F159" t="s">
-        <v>767</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="H159" t="s">
-        <v>769</v>
-      </c>
-      <c r="J159" s="3">
-        <v>4</v>
-      </c>
-      <c r="K159">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="C160" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160">
-        <v>2016</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3">
-        <v>3</v>
-      </c>
-      <c r="K160">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>775</v>
-      </c>
-      <c r="C161" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161">
-        <v>2016</v>
-      </c>
-      <c r="E161" t="s">
-        <v>776</v>
-      </c>
-      <c r="F161" t="s">
-        <v>777</v>
-      </c>
-      <c r="G161" t="s">
-        <v>777</v>
-      </c>
-      <c r="H161" t="s">
-        <v>778</v>
-      </c>
-      <c r="J161" s="3">
-        <v>1</v>
-      </c>
-      <c r="K161">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>779</v>
-      </c>
-      <c r="C162" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162">
-        <v>2016</v>
-      </c>
-      <c r="E162" t="s">
-        <v>780</v>
-      </c>
-      <c r="F162" t="s">
-        <v>781</v>
-      </c>
-      <c r="G162" t="s">
-        <v>782</v>
-      </c>
-      <c r="H162" t="s">
-        <v>783</v>
-      </c>
-      <c r="J162" s="3">
-        <v>4</v>
-      </c>
-      <c r="K162">
-        <v>336</v>
+      <c r="L162" s="4" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tamil_biology/XIth_BIO-BOTANY_TM_Combined-Page_326-336.xlsx
+++ b/tamil_biology/XIth_BIO-BOTANY_TM_Combined-Page_326-336.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\git\tvmani.github.io\tamil_biology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7583AD-F7A9-4518-82C2-E8193253DFD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B408D1-6DAB-4EE6-AD24-28B1F9637A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="791">
   <si>
     <t>question_no</t>
   </si>
@@ -2367,15 +2367,6 @@
   </si>
   <si>
     <t>மொட்டு விடுதல்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">கீழே கொடுக்கப்பட்டுள்ள (அ முதல் உ) கூற்றுகளை படித்து சரியான கூற்றுகளைக் கொண்ட பொருத்தமான விடையைத் தேர்ந்தெடுக்கவும். 
-அ) மாஸ்களும், லைக்கென்களும் வெற்றுப்பாறைகளில் கூட்டமாக வாழும் முதல் உயிரினங்களாகும். 
-ஆ)  செலாஜினெல்லா ஒத்தவித்துத்தன்மை கொண்ட ஒரு டெரிடோஃபைட் ஆகும்.
-இ) சைகஸ் பவழ வேர்கள் VAM கொண்டிருக்கின்றன.
-ஈ) பிரையோஃபைட்களில் முக்கிய தாவர உடலம் கேமீட்டக தாவரங்களாகும். அதேசமயம் டெரிடோஃபைட்களில் வித்தக தாவரங்களாகும்.
-உ) ஜிம்னோஸ்பெர்ம்களில் ஆண் மற்றும் பெண் கேமீட்டக தாவரங்கள் வித்தக தாவரங்களில் அமைந்துள்ள வித்தகங்களில் காணப்படுகின்றன.
-</t>
   </si>
   <si>
     <t>RNA மூலக்கூறை சூழ்ந்து புரத உறை காணப்படவில்லை</t>
@@ -2911,9 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3082,7 +3071,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
@@ -3280,7 +3269,7 @@
         <v>774</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
@@ -3493,7 +3482,7 @@
         <v>75</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>76</v>
@@ -3550,7 +3539,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>82</v>
@@ -3658,7 +3647,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>97</v>
@@ -3775,7 +3764,7 @@
         <v>2007</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>108</v>
@@ -3883,16 +3872,16 @@
         <v>2016</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>122</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>787</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>788</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
@@ -3968,7 +3957,7 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" s="4">
         <v>328</v>

--- a/tamil_biology/XIth_BIO-BOTANY_TM_Combined-Page_326-336.xlsx
+++ b/tamil_biology/XIth_BIO-BOTANY_TM_Combined-Page_326-336.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\git\tvmani.github.io\tamil_biology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B408D1-6DAB-4EE6-AD24-28B1F9637A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B1926-1E7E-44A2-82E3-22B9CE380782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="792">
   <si>
     <t>question_no</t>
   </si>
@@ -430,9 +430,6 @@
     <t>மெத்தனோஜென்ஸ்</t>
   </si>
   <si>
-    <t xml:space="preserve">. இலைகள், முட்களாக மாறுபாடடைந்தவை </t>
-  </si>
-  <si>
     <t>இலவம் பஞ்சு</t>
   </si>
   <si>
@@ -478,18 +475,9 @@
     <t>கொடுக்கப்பட்டவைகளில் எந்த ஒரு கூற்று சரியானது</t>
   </si>
   <si>
-    <t>புற்களின் விதைகளில் கருவூண் திசுக்கள் காணப்படுவதில்லை .</t>
-  </si>
-  <si>
     <t>மா ஒரு கருவுறாக் கனியாகும்.</t>
   </si>
   <si>
-    <t>மக்காச்சோள விதையில் புரதத்தாலான அலுரான் அடுக்கு காணப்படுகிறது.</t>
-  </si>
-  <si>
-    <t>மலட்டு சூலகம், மலட்டு மகரந்தத்தாள்கள் என அழைக்கப்படுகின்றன.</t>
-  </si>
-  <si>
     <t>உண்ணும் தரைக்கீழ்த்தண்டிற்கு உதாரணம்</t>
   </si>
   <si>
@@ -517,9 +505,6 @@
     <t>உருளைக்கிழங்கு</t>
   </si>
   <si>
-    <t>அல்லிவட்டம் அல்லது புல்லிவட்டம் ஆகியவை ஒன்றுக்கொன்று தழுவி ஒரு குறிப்பிட்ட திசையில் அமையாமல் இருக்கும் நிலைக்கு</t>
-  </si>
-  <si>
     <t>வெக்ஸில்லரி</t>
   </si>
   <si>
@@ -559,9 +544,6 @@
     <t>கோதுமை</t>
   </si>
   <si>
-    <t>விதையுறை மென்மையாகவோ, சவ்வுபோன்றோ கிடையாது</t>
-  </si>
-  <si>
     <t>தென்னை</t>
   </si>
   <si>
@@ -580,9 +562,6 @@
     <t>ஆரச் சீருடையது, மேல்மட்ட சூற்பை , திருகு இதழமைவு உடையது.</t>
   </si>
   <si>
-    <t>தக்காளி மற்றும் எலுமிச்சையில் சூல்ஒட்டுமுறை</t>
-  </si>
-  <si>
     <t>விளிம்பு சூல் ஒட்டுமுறை</t>
   </si>
   <si>
@@ -622,9 +601,6 @@
     <t>யூபோர்ஃபியா</t>
   </si>
   <si>
-    <t>கீழே கொடுக்கப்பட்டுள்ள பட்டியலில் எத்தனை தாவரம் கூட்டுக்கனிகளை மஞ்சரியிலிருந்து உருவாக்குகிறது? வால்நட், கசகசா, முள்ளங்கி, அத்தி, அன்னாசி, ஆப்பிள், தக்காளி, மல்பெரி</t>
-  </si>
-  <si>
     <t>சைமோஸ் மஞ்சரி இதில் காணப்படுகிறது.</t>
   </si>
   <si>
@@ -655,9 +631,6 @@
     <t>மக்காச்சோளம் : C3 வழித்தடம், மூடிய வாஸ்குலக் கற்றை, ஸ்குட்டெல்லம்</t>
   </si>
   <si>
-    <t>கீழே கொடுக்கப்பட்டுள்ளவற்றில் எத்தனை தாவரங்களில் விளிம்பு சூல் ஒட்டுமுறை காணப்படுகிறது? கடுகு, பருப்பு, டூளிப், ஆஸ்பாரகஸ், ஆர்கார், சணப்பை, மிளகாய், கால்சிசின், வெங்காயம், பச்சைப்பயறு, பட்டாணி, புகையிலை, லுப்பின்</t>
-  </si>
-  <si>
     <t>A I P M T Mains</t>
   </si>
   <si>
@@ -688,9 +661,6 @@
     <t>ஆர்க்கிட் விதைகள் அதிக எண்ணெய் கொண்டுள்ள கருவூண் திசு பெற்றுள்ளது</t>
   </si>
   <si>
-    <t>ப்ரிம் ரோஜாவில்(Primrose) அடிசூல் ஒட்டு முறை காணப்படுகிறது.</t>
-  </si>
-  <si>
     <t>ட்ரூப் இதில் உருவாகிறது</t>
   </si>
   <si>
@@ -748,12 +718,6 @@
     <t>லூவன் ஹுக்</t>
   </si>
   <si>
-    <t>இராபரட் பிரௌன்</t>
-  </si>
-  <si>
-    <t>கீழே கொடுக்கப்பட்டுள்ளவற்றில் எது உறுதியைத் தருவதுடன், புரதச் சேர்க்கையிலும் மற்றும் நோதிகளை கடத்துவதிலும் ஈடுபடுகிறது?</t>
-  </si>
-  <si>
     <t>செல்சவ்வு</t>
   </si>
   <si>
@@ -766,12 +730,6 @@
     <t>எண்டோபிளாச வலை</t>
   </si>
   <si>
-    <t>யூகேரியோட்டிக் செல்களில் உள்ள ஜீன்கள் சைட்டோபிளாசத்தில் இங்கு காணப்படுகிறது.</t>
-  </si>
-  <si>
-    <t>மைட்டோகாண்டிரியா மற்றும் பாரம்பரிய வழிவந்த கருமுட்டையின் சைட்டோபிளாசம்.</t>
-  </si>
-  <si>
     <t>லைசோசோம்கள் மற்றும் பெராக்ஸிசோம்கள்</t>
   </si>
   <si>
@@ -779,9 +737,6 @@
   </si>
   <si>
     <t>ஆண் கேமீட்களின் பாரம்பரியவழி கணிகங்கள்</t>
-  </si>
-  <si>
-    <t>கீழ்க்கண்டவற்றில் எதில் கிளையாக்சிசோமில் காணப்படுகிறது என்று நீ கருதுகிறாய்?</t>
   </si>
   <si>
     <t>கோதுமையின் கருவூண்திசு</t>
@@ -2410,6 +2365,61 @@
 இ) சைகஸ் பவழ வேர்கள் VAM கொண்டிருக்கின்றன.
 ஈ) பிரையோஃபைட்களில் முக்கிய தாவர உடலம் கேமீட்டக தாவரங்களாகும். அதேசமயம் டெரிடோஃபைட்களில் வித்தக தாவரங்களாகும்.
 உ) ஜிம்னோஸ்பெர்ம்களில் ஆண் மற்றும் பெண் கேமீட்டக தாவரங்கள் வித்தக தாவரங்களில் அமைந்துள்ள வித்தகங்களில் காணப்படுகின்றன.</t>
+  </si>
+  <si>
+    <t>ப்ரிம் ரோஜாவில் (Primrose) அடிசூல் ஒட்டு முறை காணப்படுகிறது.</t>
+  </si>
+  <si>
+    <t>இலைகள், முட்களாக மாறுபாடடைந்தவை</t>
+  </si>
+  <si>
+    <t>அல்லிவட்டம் அல்லது புல்லிவட்டம் ஆகியவை ஒன்றுக்கொன்று தழுவி ஒரு குறிப்பிட்ட திசையில் அமையாமல் இருக்கும் நிலைக்கு என்ன பெயர்?</t>
+  </si>
+  <si>
+    <t>எதனுடைய விதையுறை மென்மையாகவோ, சவ்வு போன்றோ கிடையாது</t>
+  </si>
+  <si>
+    <t>தக்காளி மற்றும் எலுமிச்சையில் சூல் ஒட்டுமுறை</t>
+  </si>
+  <si>
+    <t>கீழே கொடுக்கப்பட்டுள்ள பட்டியலில் எத்தனை தாவரங்கள் கூட்டுக்கனிகளை மஞ்சரியிலிருந்து உருவாக்குகிறது? 
+வால்நட், கசகசா, முள்ளங்கி, 
+அத்தி, அன்னாசி, ஆப்பிள், 
+தக்காளி, மல்பெரி</t>
+  </si>
+  <si>
+    <t>கீழே கொடுக்கப்பட்டுள்ளவற்றில் எத்தனை தாவரங்களில் விளிம்பு சூல் ஒட்டுமுறை காணப்படுகிறது? 
+கடுகு, பருப்பு, டூளிப், ஆஸ்பாரகஸ், 
+ஆர்கார், சணப்பை, மிளகாய், கால்சிசின், 
+வெங்காயம், பச்சைப்பயறு, பட்டாணி, புகையிலை, 
+லுப்பின்</t>
+  </si>
+  <si>
+    <t>புற்களின் விதைகளில் கருவூண் திசுக்கள் காணப்படுவதில்லை</t>
+  </si>
+  <si>
+    <t>மக்காச்சோள விதையில் புரதத்தாலான அலுரான் அடுக்கு காணப்படுகிறது</t>
+  </si>
+  <si>
+    <t>மலட்டு சூலகம், மலட்டு மகரந்தத்தாள்கள் என அழைக்கப்படுகின்றன</t>
+  </si>
+  <si>
+    <t>இருபக்கச் சீருடையது, மேல்மட்ட சூற்பை, அடுக்கு  இதழ் அமைவு உடையது.</t>
+  </si>
+  <si>
+    <t>இராபர்ட் பிரௌன்</t>
+  </si>
+  <si>
+    <t>கீழே கொடுக்கப்பட்டுள்ளவற்றில் எது உறுதியைத் தருவதுடன், புரதச் சேர்க்கையிலும் மற்றும் நொதிகளை கடத்துவதிலும் ஈடுபடுகிறது?</t>
+  </si>
+  <si>
+    <t>யூகேரியோட்டிக் செல்களில் உள்ள ஜீன்கள், சைட்டோபிளாசத்தில் இங்கு காணப்படுகிறது.</t>
+  </si>
+  <si>
+    <t>மைட்டோகாண்டிரியா மற்றும் பாரம்பரிய வழிவந்த கருமுட்டையின் சைட்டோபிளாசம்</t>
+  </si>
+  <si>
+    <t>கீழ்க்கண்டவற்றில் எது, கிளையாக்சிசோமில் காணப்படுகிறது என்று நீ கருதுகிறாய்?</t>
   </si>
 </sst>
 </file>
@@ -2561,6 +2571,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table12456789" displayName="Table12456789" ref="A1:L162" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L162" xr:uid="{B87B73D2-1892-42FC-AF99-5D4AA2FFE751}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="செல் உயிரியல் மற்றும் உயிரி மூலக்கூறுகள்"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="question_no" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="question" dataDxfId="10"/>
@@ -2906,7 +2923,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="53.21875" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -2946,7 +2963,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -2955,10 +2972,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2975,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -2991,10 +3008,10 @@
         <v>326</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3008,7 +3025,7 @@
         <v>2017</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>16</v>
@@ -3017,7 +3034,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4">
@@ -3027,10 +3044,10 @@
         <v>326</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3063,15 +3080,15 @@
         <v>326</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
@@ -3099,10 +3116,10 @@
         <v>326</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3135,15 +3152,15 @@
         <v>326</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
@@ -3171,10 +3188,10 @@
         <v>326</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3207,10 +3224,10 @@
         <v>326</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3243,10 +3260,10 @@
         <v>326</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3260,16 +3277,16 @@
         <v>2017</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
@@ -3279,10 +3296,10 @@
         <v>326</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3315,10 +3332,10 @@
         <v>326</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3351,10 +3368,10 @@
         <v>326</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3387,10 +3404,10 @@
         <v>326</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3423,10 +3440,10 @@
         <v>326</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3459,10 +3476,10 @@
         <v>327</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3482,7 +3499,7 @@
         <v>75</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>76</v>
@@ -3495,10 +3512,10 @@
         <v>327</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3531,15 +3548,15 @@
         <v>327</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>82</v>
@@ -3567,10 +3584,10 @@
         <v>327</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3603,10 +3620,10 @@
         <v>327</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3639,15 +3656,15 @@
         <v>327</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>97</v>
@@ -3675,10 +3692,10 @@
         <v>327</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3711,10 +3728,10 @@
         <v>327</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3728,13 +3745,13 @@
         <v>2016</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>106</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>107</v>
@@ -3747,15 +3764,15 @@
         <v>327</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>97</v>
@@ -3764,7 +3781,7 @@
         <v>2007</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>108</v>
@@ -3783,10 +3800,10 @@
         <v>327</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3819,10 +3836,10 @@
         <v>327</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3855,10 +3872,10 @@
         <v>327</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3872,16 +3889,16 @@
         <v>2016</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>122</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
@@ -3891,10 +3908,10 @@
         <v>328</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3911,7 +3928,7 @@
         <v>124</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>125</v>
@@ -3927,10 +3944,10 @@
         <v>328</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3963,10 +3980,10 @@
         <v>328</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3989,7 +4006,7 @@
         <v>135</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4">
@@ -3999,15 +4016,15 @@
         <v>328</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>136</v>
+        <v>777</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>23</v>
@@ -4016,16 +4033,16 @@
         <v>2015</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4">
@@ -4035,15 +4052,15 @@
         <v>328</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>23</v>
@@ -4052,16 +4069,16 @@
         <v>2015</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4">
@@ -4071,15 +4088,15 @@
         <v>328</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>23</v>
@@ -4088,16 +4105,16 @@
         <v>2015</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4">
@@ -4107,29 +4124,29 @@
         <v>328</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>152</v>
+        <v>783</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>154</v>
+        <v>784</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>155</v>
+        <v>785</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4">
@@ -4139,15 +4156,15 @@
         <v>328</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>23</v>
@@ -4156,16 +4173,16 @@
         <v>2014</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4">
@@ -4175,15 +4192,15 @@
         <v>328</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>23</v>
@@ -4192,16 +4209,16 @@
         <v>2014</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4">
@@ -4211,15 +4228,15 @@
         <v>328</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>165</v>
+        <v>778</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>23</v>
@@ -4228,16 +4245,16 @@
         <v>2014</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4">
@@ -4247,15 +4264,15 @@
         <v>328</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>23</v>
@@ -4264,16 +4281,16 @@
         <v>2014</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4">
@@ -4283,15 +4300,15 @@
         <v>328</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>23</v>
@@ -4300,16 +4317,16 @@
         <v>2014</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4">
@@ -4319,15 +4336,15 @@
         <v>328</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>179</v>
+        <v>779</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>11</v>
@@ -4336,16 +4353,16 @@
         <v>2014</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4">
@@ -4355,15 +4372,15 @@
         <v>328</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>11</v>
@@ -4372,16 +4389,16 @@
         <v>2013</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>183</v>
+        <v>786</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4">
@@ -4391,15 +4408,15 @@
         <v>328</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>186</v>
+        <v>780</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>97</v>
@@ -4408,16 +4425,16 @@
         <v>2012</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4">
@@ -4427,29 +4444,29 @@
         <v>328</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4">
@@ -4459,15 +4476,15 @@
         <v>329</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>97</v>
@@ -4476,16 +4493,16 @@
         <v>2014</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4">
@@ -4495,15 +4512,15 @@
         <v>329</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>200</v>
+        <v>781</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>97</v>
@@ -4531,15 +4548,15 @@
         <v>329</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>97</v>
@@ -4548,16 +4565,16 @@
         <v>2012</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4">
@@ -4567,29 +4584,29 @@
         <v>329</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4">
@@ -4599,18 +4616,18 @@
         <v>329</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>211</v>
+        <v>782</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D48" s="4">
         <v>2012</v>
@@ -4635,29 +4652,29 @@
         <v>329</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4">
@@ -4667,15 +4684,15 @@
         <v>329</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>97</v>
@@ -4684,16 +4701,16 @@
         <v>2011</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>222</v>
+        <v>776</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4">
@@ -4703,15 +4720,15 @@
         <v>329</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>97</v>
@@ -4720,16 +4737,16 @@
         <v>2011</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4">
@@ -4739,7 +4756,7 @@
         <v>329</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -4747,25 +4764,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4">
@@ -4775,7 +4792,7 @@
         <v>329</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -4783,25 +4800,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D53" s="4">
         <v>2009</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4">
@@ -4811,7 +4828,7 @@
         <v>329</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -4819,25 +4836,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D54" s="4">
         <v>2007</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>242</v>
+        <v>787</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4">
@@ -4847,7 +4864,7 @@
         <v>329</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -4855,25 +4872,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>243</v>
+        <v>788</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D55" s="4">
         <v>2007</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4">
@@ -4883,7 +4900,7 @@
         <v>329</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
@@ -4891,25 +4908,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>248</v>
+        <v>789</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D56" s="4">
         <v>2006</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>249</v>
+        <v>790</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4">
@@ -4919,7 +4936,7 @@
         <v>329</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -4927,25 +4944,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>253</v>
+        <v>791</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D57" s="4">
         <v>2005</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4">
@@ -4955,7 +4972,7 @@
         <v>329</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -4963,25 +4980,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D58" s="4">
         <v>2012</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="G58" s="4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4">
@@ -4991,7 +5008,7 @@
         <v>329</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -4999,25 +5016,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D59" s="4">
         <v>2012</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4">
@@ -5027,7 +5044,7 @@
         <v>330</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5035,25 +5052,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D60" s="4">
         <v>2008</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="G60" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4">
@@ -5063,7 +5080,7 @@
         <v>330</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -5071,7 +5088,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>11</v>
@@ -5080,26 +5097,26 @@
         <v>2013</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="4">
         <v>330</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
@@ -5107,7 +5124,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>11</v>
@@ -5116,16 +5133,16 @@
         <v>2013</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4">
@@ -5135,7 +5152,7 @@
         <v>330</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5143,7 +5160,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>23</v>
@@ -5152,16 +5169,16 @@
         <v>2010</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4">
@@ -5171,7 +5188,7 @@
         <v>330</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5179,25 +5196,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D64" s="4">
         <v>2005</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4">
@@ -5207,7 +5224,7 @@
         <v>330</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5215,25 +5232,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D65" s="4">
         <v>2002</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4">
@@ -5243,7 +5260,7 @@
         <v>330</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -5251,7 +5268,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>23</v>
@@ -5260,16 +5277,16 @@
         <v>2010</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4">
@@ -5279,7 +5296,7 @@
         <v>330</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="72" x14ac:dyDescent="0.3">
@@ -5287,21 +5304,21 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4">
@@ -5311,7 +5328,7 @@
         <v>330</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5319,7 +5336,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>23</v>
@@ -5328,16 +5345,16 @@
         <v>2005</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4">
@@ -5347,7 +5364,7 @@
         <v>330</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -5355,7 +5372,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>23</v>
@@ -5364,16 +5381,16 @@
         <v>2010</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4">
@@ -5383,33 +5400,33 @@
         <v>330</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="D70" s="4">
         <v>2016</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4">
@@ -5419,33 +5436,33 @@
         <v>330</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D71" s="4">
         <v>2016</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4">
@@ -5455,15 +5472,15 @@
         <v>330</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>23</v>
@@ -5472,16 +5489,16 @@
         <v>2015</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4">
@@ -5491,15 +5508,15 @@
         <v>330</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>23</v>
@@ -5508,16 +5525,16 @@
         <v>2014</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4">
@@ -5527,15 +5544,15 @@
         <v>331</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>23</v>
@@ -5544,16 +5561,16 @@
         <v>2010</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4">
@@ -5563,29 +5580,29 @@
         <v>331</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4">
@@ -5595,15 +5612,15 @@
         <v>331</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>23</v>
@@ -5612,16 +5629,16 @@
         <v>2008</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4">
@@ -5631,15 +5648,15 @@
         <v>331</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>23</v>
@@ -5648,16 +5665,16 @@
         <v>2009</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4">
@@ -5667,15 +5684,15 @@
         <v>331</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>23</v>
@@ -5684,16 +5701,16 @@
         <v>2009</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4">
@@ -5703,33 +5720,33 @@
         <v>331</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D79" s="4">
         <v>2009</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4">
@@ -5739,33 +5756,33 @@
         <v>331</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4">
@@ -5775,15 +5792,15 @@
         <v>331</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>23</v>
@@ -5792,16 +5809,16 @@
         <v>2008</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4">
@@ -5811,15 +5828,15 @@
         <v>331</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>23</v>
@@ -5828,16 +5845,16 @@
         <v>2007</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4">
@@ -5847,15 +5864,15 @@
         <v>331</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>23</v>
@@ -5864,16 +5881,16 @@
         <v>2010</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4">
@@ -5883,15 +5900,15 @@
         <v>331</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>23</v>
@@ -5900,16 +5917,16 @@
         <v>2007</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4">
@@ -5919,15 +5936,15 @@
         <v>331</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>23</v>
@@ -5936,16 +5953,16 @@
         <v>2004</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4">
@@ -5955,15 +5972,15 @@
         <v>331</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>23</v>
@@ -5972,16 +5989,16 @@
         <v>2003</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4">
@@ -5991,15 +6008,15 @@
         <v>332</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>23</v>
@@ -6008,16 +6025,16 @@
         <v>2000</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4">
@@ -6027,33 +6044,33 @@
         <v>332</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D88" s="4">
         <v>2016</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4">
@@ -6063,15 +6080,15 @@
         <v>332</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -6083,15 +6100,15 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -6103,33 +6120,33 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D91" s="4">
         <v>2016</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4">
@@ -6139,33 +6156,33 @@
         <v>332</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D92" s="4">
         <v>2016</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4">
@@ -6175,33 +6192,33 @@
         <v>332</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D93" s="4">
         <v>2013</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4">
@@ -6211,33 +6228,33 @@
         <v>332</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D94" s="4">
         <v>2012</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4">
@@ -6247,33 +6264,33 @@
         <v>332</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D95" s="4">
         <v>2011</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4">
@@ -6283,33 +6300,33 @@
         <v>332</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D96" s="4">
         <v>2011</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4">
@@ -6319,15 +6336,15 @@
         <v>332</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>11</v>
@@ -6336,16 +6353,16 @@
         <v>2017</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4">
@@ -6355,15 +6372,15 @@
         <v>332</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>11</v>
@@ -6372,16 +6389,16 @@
         <v>2017</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4">
@@ -6391,33 +6408,33 @@
         <v>332</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="D99" s="4">
         <v>2012</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4">
@@ -6427,15 +6444,15 @@
         <v>332</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>11</v>
@@ -6444,16 +6461,16 @@
         <v>2017</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4">
@@ -6463,15 +6480,15 @@
         <v>332</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>11</v>
@@ -6480,16 +6497,16 @@
         <v>2015</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4">
@@ -6499,33 +6516,33 @@
         <v>333</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="D102" s="4">
         <v>2000</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4">
@@ -6535,33 +6552,33 @@
         <v>333</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D103" s="4">
         <v>2001</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4">
@@ -6571,33 +6588,33 @@
         <v>333</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D104" s="4">
         <v>2002</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4">
@@ -6607,33 +6624,33 @@
         <v>333</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="D105" s="4">
         <v>2002</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4">
@@ -6643,33 +6660,33 @@
         <v>333</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D106" s="4">
         <v>2006</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4">
@@ -6679,15 +6696,15 @@
         <v>333</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>11</v>
@@ -6696,16 +6713,16 @@
         <v>2015</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="I107" s="4"/>
       <c r="J107" s="4">
@@ -6715,33 +6732,33 @@
         <v>333</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D108" s="4">
         <v>1998</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="4">
@@ -6751,33 +6768,33 @@
         <v>333</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D109" s="4">
         <v>2002</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4">
@@ -6787,33 +6804,33 @@
         <v>333</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="D110" s="4">
         <v>2002</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4">
@@ -6823,33 +6840,33 @@
         <v>333</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="D111" s="4">
         <v>2003</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4">
@@ -6859,33 +6876,33 @@
         <v>333</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="D112" s="4">
         <v>2000</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4">
@@ -6895,33 +6912,33 @@
         <v>333</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4">
@@ -6931,33 +6948,33 @@
         <v>333</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D114" s="4">
         <v>1996</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4">
@@ -6967,33 +6984,33 @@
         <v>333</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="D115" s="4">
         <v>2016</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4">
@@ -7003,33 +7020,33 @@
         <v>333</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D116" s="4">
         <v>2007</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4">
@@ -7039,33 +7056,33 @@
         <v>334</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="D117" s="4">
         <v>2006</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4">
@@ -7075,33 +7092,33 @@
         <v>334</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="D118" s="4">
         <v>2006</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="4">
@@ -7111,33 +7128,33 @@
         <v>334</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D119" s="4">
         <v>2008</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4">
@@ -7147,29 +7164,29 @@
         <v>334</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="I120" s="4"/>
       <c r="J120" s="4">
@@ -7179,33 +7196,33 @@
         <v>334</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D121" s="4">
         <v>2007</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4">
@@ -7215,33 +7232,33 @@
         <v>334</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="D122" s="4">
         <v>2011</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="I122" s="4"/>
       <c r="J122" s="4">
@@ -7251,15 +7268,15 @@
         <v>334</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>23</v>
@@ -7268,16 +7285,16 @@
         <v>2014</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="I123" s="4"/>
       <c r="J123" s="4">
@@ -7287,15 +7304,15 @@
         <v>334</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>23</v>
@@ -7304,16 +7321,16 @@
         <v>2013</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4">
@@ -7323,15 +7340,15 @@
         <v>334</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>23</v>
@@ -7340,16 +7357,16 @@
         <v>2010</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="I125" s="4"/>
       <c r="J125" s="4">
@@ -7359,33 +7376,33 @@
         <v>334</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D126" s="4">
         <v>1980</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="I126" s="4"/>
       <c r="J126" s="4">
@@ -7395,33 +7412,33 @@
         <v>334</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D127" s="4">
         <v>1993</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="I127" s="4"/>
       <c r="J127" s="4">
@@ -7431,15 +7448,15 @@
         <v>334</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>23</v>
@@ -7448,16 +7465,16 @@
         <v>2004</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="I128" s="4"/>
       <c r="J128" s="4">
@@ -7467,15 +7484,15 @@
         <v>334</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>23</v>
@@ -7484,16 +7501,16 @@
         <v>2008</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="I129" s="4"/>
       <c r="J129" s="4">
@@ -7503,15 +7520,15 @@
         <v>334</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>23</v>
@@ -7520,16 +7537,16 @@
         <v>2010</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="I130" s="4"/>
       <c r="J130" s="4">
@@ -7539,33 +7556,33 @@
         <v>334</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D131" s="4">
         <v>2007</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="I131" s="4"/>
       <c r="J131" s="4">
@@ -7575,15 +7592,15 @@
         <v>334</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>23</v>
@@ -7592,16 +7609,16 @@
         <v>2005</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="I132" s="4"/>
       <c r="J132" s="4">
@@ -7611,15 +7628,15 @@
         <v>335</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>11</v>
@@ -7628,16 +7645,16 @@
         <v>2017</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="4">
@@ -7647,15 +7664,15 @@
         <v>335</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>11</v>
@@ -7664,16 +7681,16 @@
         <v>2017</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="I134" s="4"/>
       <c r="J134" s="4">
@@ -7683,33 +7700,33 @@
         <v>335</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="D135" s="4">
         <v>2016</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="I135" s="4"/>
       <c r="J135" s="4">
@@ -7719,33 +7736,33 @@
         <v>335</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="D136" s="4">
         <v>2016</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="I136" s="4"/>
       <c r="J136" s="4">
@@ -7755,33 +7772,33 @@
         <v>335</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="D137" s="4">
         <v>2016</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="I137" s="4"/>
       <c r="J137" s="4">
@@ -7791,33 +7808,33 @@
         <v>335</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="D138" s="4">
         <v>2016</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="I138" s="4"/>
       <c r="J138" s="4">
@@ -7827,15 +7844,15 @@
         <v>335</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>11</v>
@@ -7844,16 +7861,16 @@
         <v>2016</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="I139" s="4"/>
       <c r="J139" s="4">
@@ -7863,33 +7880,33 @@
         <v>335</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4">
@@ -7899,15 +7916,15 @@
         <v>335</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>11</v>
@@ -7916,16 +7933,16 @@
         <v>2017</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4">
@@ -7935,15 +7952,15 @@
         <v>335</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -7957,15 +7974,15 @@
         <v>335</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>23</v>
@@ -7974,16 +7991,16 @@
         <v>2010</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="I143" s="4"/>
       <c r="J143" s="4">
@@ -7993,33 +8010,33 @@
         <v>335</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="D144" s="4">
         <v>1980</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="I144" s="4"/>
       <c r="J144" s="4">
@@ -8029,33 +8046,33 @@
         <v>336</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="D145" s="4">
         <v>1980</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="I145" s="4"/>
       <c r="J145" s="4">
@@ -8065,33 +8082,33 @@
         <v>336</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="D146" s="4">
         <v>1984</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="I146" s="4"/>
       <c r="J146" s="4">
@@ -8101,33 +8118,33 @@
         <v>336</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D147" s="4">
         <v>1984</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4">
@@ -8137,33 +8154,33 @@
         <v>336</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D148" s="4">
         <v>1989</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="I148" s="4"/>
       <c r="J148" s="4">
@@ -8173,33 +8190,33 @@
         <v>336</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="D149" s="4">
         <v>2000</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4">
@@ -8209,33 +8226,33 @@
         <v>336</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="D150" s="4">
         <v>2003</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="I150" s="4"/>
       <c r="J150" s="4">
@@ -8245,33 +8262,33 @@
         <v>336</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D151" s="4">
         <v>2004</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="I151" s="4"/>
       <c r="J151" s="4">
@@ -8281,33 +8298,33 @@
         <v>336</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D152" s="4">
         <v>2004</v>
       </c>
       <c r="E152" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="G152" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="F152" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>720</v>
-      </c>
       <c r="H152" s="4" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="I152" s="4"/>
       <c r="J152" s="4">
@@ -8317,33 +8334,33 @@
         <v>336</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="I153" s="4"/>
       <c r="J153" s="4">
@@ -8353,15 +8370,15 @@
         <v>336</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>23</v>
@@ -8370,16 +8387,16 @@
         <v>2004</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4">
@@ -8389,33 +8406,33 @@
         <v>336</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="D155" s="4">
         <v>2009</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="I155" s="4"/>
       <c r="J155" s="4">
@@ -8425,15 +8442,15 @@
         <v>336</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>23</v>
@@ -8442,16 +8459,16 @@
         <v>2010</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I156" s="4"/>
       <c r="J156" s="4">
@@ -8461,15 +8478,15 @@
         <v>336</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>23</v>
@@ -8478,16 +8495,16 @@
         <v>2010</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4">
@@ -8497,15 +8514,15 @@
         <v>336</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>23</v>
@@ -8514,16 +8531,16 @@
         <v>2010</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="I158" s="4"/>
       <c r="J158" s="4">
@@ -8533,15 +8550,15 @@
         <v>336</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>23</v>
@@ -8550,16 +8567,16 @@
         <v>2008</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="I159" s="4"/>
       <c r="J159" s="4">
@@ -8569,15 +8586,15 @@
         <v>336</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>11</v>
@@ -8586,16 +8603,16 @@
         <v>2016</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="I160" s="4"/>
       <c r="J160" s="4">
@@ -8605,15 +8622,15 @@
         <v>336</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>11</v>
@@ -8622,16 +8639,16 @@
         <v>2016</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="I161" s="4"/>
       <c r="J161" s="4">
@@ -8641,15 +8658,15 @@
         <v>336</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>11</v>
@@ -8658,16 +8675,16 @@
         <v>2016</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="I162" s="4"/>
       <c r="J162" s="4">
@@ -8677,7 +8694,7 @@
         <v>336</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>

--- a/tamil_biology/XIth_BIO-BOTANY_TM_Combined-Page_326-336.xlsx
+++ b/tamil_biology/XIth_BIO-BOTANY_TM_Combined-Page_326-336.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\git\tvmani.github.io\tamil_biology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B1926-1E7E-44A2-82E3-22B9CE380782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80C054A-66EB-425E-84B3-7260EDDE53F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="796">
   <si>
     <t>question_no</t>
   </si>
@@ -940,9 +940,6 @@
     <t>அகத்தோல் மற்றும் வாஸ்குலத்தொகுப்பு</t>
   </si>
   <si>
-    <t>கீழ்கண்ட I முதல் IV வரை உள்ள விடைகளை படித்து இருவிதையிலை கட்டையின் கூறுகளை வெளிப்பகுதியிலிருந்து உள்நோக்கி சரியான வரிசையில் கண்டறிக I) இரண்டாம் நிலை புறணி II) கட்டை III) இரண்டாம் நிலை ஃபுளோயம் IV) ஃபெல்லம்</t>
-  </si>
-  <si>
     <t>III, IV, II மற்றும் I</t>
   </si>
   <si>
@@ -955,9 +952,6 @@
     <t>IV ,III ,I மற்றும் II</t>
   </si>
   <si>
-    <t>உங்களிடன் முதிர்ந்த இருவிதையிலை தண்டு மற்றும் இருவிதையிலை வேர் கொடுக்கப்பட்டுள்ளது. கீழ்கண்ட எந்த உள்ளமைப்பியல் பண்பின் அடிப்படையில் அவற்றை வேறுபடுத்தி அறிவாய்?</t>
-  </si>
-  <si>
     <t>இரண்டாம் நிலை சைலம்</t>
   </si>
   <si>
@@ -1000,9 +994,6 @@
     <t>வேறுபாடு அடைய</t>
   </si>
   <si>
-    <t>முதிர்ந்த இருவித்திலை வேரிலிருந்து இருவித்திலை தண்டினை எவ்வாறு வேறுபாடுத்தி அறிவாய்?</t>
-  </si>
-  <si>
     <t>இரண்டாம் நிலை சைலம் காணப்படுவதில்லை</t>
   </si>
   <si>
@@ -1030,9 +1021,6 @@
     <t>மூடியது மற்றும் ஆரப்போக்கானது</t>
   </si>
   <si>
-    <t>பாலிசேடு பாரங்ககைமா கீழ்கண்ட எந்த தாவர இலையில் காணப்படுவதில்லை</t>
-  </si>
-  <si>
     <t>சோளம்</t>
   </si>
   <si>
@@ -1105,21 +1093,12 @@
     <t>சல்லடை கூறுகள் பொருட்களை மற்ற பகுதிகளுக்கு செல்லும் நுழைவு புள்ளிகளாக செயல்படுகிறது.</t>
   </si>
   <si>
-    <t>விதை முளைத்தலின் போது கரு அச்சு வளர்ச்சியானது விதை வெளிஉறைலிருந்து வெளிவருகிறது.</t>
-  </si>
-  <si>
     <t>மகரந்த குழல் சூலக தன்டு மையப் பகுதி வழியாக சூலகத்தை அடைகிறது</t>
   </si>
   <si>
-    <t>கீழ் கண்டவற்றில் எது பக்க ஆக்குத்திசு இல்லை</t>
-  </si>
-  <si>
     <t>கற்றை இடை கேம்பியம்</t>
   </si>
   <si>
-    <t>இடையாக்கு திசு</t>
-  </si>
-  <si>
     <t>கற்றையினுள் அமை கேம்பியம்</t>
   </si>
   <si>
@@ -1150,9 +1129,6 @@
     <t>செல் பிரிதல், செல் பெரிதாகுதல், செல்முதிர்ச்சியடைதல், வேர் மூடி</t>
   </si>
   <si>
-    <t>செல் பிரிதல் செல் முதிர்ச்சி அடைதல், செல்பெரிதாகுதல், வேர் மூடி</t>
-  </si>
-  <si>
     <t>உறக்க மையத்தின் செல்களில் காணப்படும் பண்பு</t>
   </si>
   <si>
@@ -1168,24 +1144,15 @@
     <t>வழக்கமாக பகுப்படைந்து டூனிகா உண்டாக்குவது</t>
   </si>
   <si>
-    <t>பி-புரோட் டின் இதில் காணப்படுகிறது</t>
-  </si>
-  <si>
     <t>பாரங்கைமா</t>
   </si>
   <si>
     <t>கோலங்கைமா</t>
   </si>
   <si>
-    <t>சல்லடைகுழாய்</t>
-  </si>
-  <si>
     <t>சைலம்</t>
   </si>
   <si>
-    <t>சிறப்பான பறத்தோல் செல்களில் காப்பு செல்களை சூழ்ந்து காணப்படும் செல்கள்</t>
-  </si>
-  <si>
     <t>NEET I</t>
   </si>
   <si>
@@ -1201,9 +1168,6 @@
     <t>துணைச் செல்கள்</t>
   </si>
   <si>
-    <t>question not typed</t>
-  </si>
-  <si>
     <t>வைரக்கட்டை இதில் காணப்படுகிறது.</t>
   </si>
   <si>
@@ -1234,12 +1198,6 @@
     <t>மேற்கண்ட எதுவுமில்லை</t>
   </si>
   <si>
-    <t>காயங்களிலிருந்து சேதபடுத்தப்பட்ட திசுக்களை புதுப்பிப்பது</t>
-  </si>
-  <si>
-    <t>கீழ்புற ஆக்குத்திசு</t>
-  </si>
-  <si>
     <t>இரண்டாம் நிலை ஆக்குத்திசு</t>
   </si>
   <si>
@@ -1249,33 +1207,15 @@
     <t>மேற்கண்ட அனைத்தும்</t>
   </si>
   <si>
-    <t>கீழ்கண்ட திசுக்களில் எது உயிருள்ள செல்களை கொண்டது</t>
-  </si>
-  <si>
-    <t>சைலக்குழாய்கள்</t>
-  </si>
-  <si>
     <t>டிரக்கீடுகள்</t>
   </si>
   <si>
-    <t>சல்லடைசெல்கள்</t>
-  </si>
-  <si>
     <t>ஸ்கிலிரங்கைமா</t>
   </si>
   <si>
-    <t>வேர் ஆக்குத்திசுவில் உறக்கமைய பகுதியின் வேலையாது</t>
-  </si>
-  <si>
-    <t>முதிர்ச் சி அடைவதற்கு தேவையான உணவினை சேமிக்கும் பகுதி</t>
-  </si>
-  <si>
     <t>தாவர வளர்ச்சிப்பொருட்களை சேமிக்கும் பகுதி</t>
   </si>
   <si>
-    <t>ஆக்குத்திசுவில் சேதமுற்ற செல்களை புதுபிக்க தேவையான சேமிக்கும் பகுதி</t>
-  </si>
-  <si>
     <t>தண்ணீரை உறுஞ்சும் பகுதி</t>
   </si>
   <si>
@@ -1291,12 +1231,6 @@
     <t>தன்னை தானே அழிக்கும் நொதி</t>
   </si>
   <si>
-    <t>சேதமுற்ற செல்களை சரி செய்வதற்கான செயலில் பங்கேற்பது.</t>
-  </si>
-  <si>
-    <t>கீழ்கண்டவற்றில் எது உயிரற்ற செல்களை கொண்டது</t>
-  </si>
-  <si>
     <t>சைலம் பாரங்கைமா</t>
   </si>
   <si>
@@ -1316,9 +1250,6 @@
   </si>
   <si>
     <t>பெரிடெர்ம்</t>
-  </si>
-  <si>
-    <t>கீழ்கண்ட எந்த தாவரத்தில் பல அடுக்கு புறத்தோல் காணப்படுகிறது</t>
   </si>
   <si>
     <t>MANIPAL</t>
@@ -2420,6 +2351,98 @@
   </si>
   <si>
     <t>கீழ்க்கண்டவற்றில் எது, கிளையாக்சிசோமில் காணப்படுகிறது என்று நீ கருதுகிறாய்?</t>
+  </si>
+  <si>
+    <t>கீழ்கண்ட I முதல் IV வரை உள்ள விடைகளை படித்து இருவிதையிலை கட்டையின் கூறுகளை, வெளிப்பகுதியிலிருந்து உள்நோக்கி, சரியான வரிசையில் கண்டறிக.
+I) இரண்டாம் நிலை புறணி
+II) கட்டை
+III) இரண்டாம் நிலை ஃபுளோயம்
+IV) ஃபெல்லம்</t>
+  </si>
+  <si>
+    <t>உங்களிடம் முதிர்ந்த இருவிதையிலை தண்டு மற்றும் இருவிதையிலை வேர் கொடுக்கப்பட்டுள்ளது. கீழ்க்கண்ட எந்த உள்ளமைப்பியல் பண்பின் அடிப்படையில் அவற்றை வேறுபடுத்தி அறிவாய்?</t>
+  </si>
+  <si>
+    <t>முதிர்ந்த இருவித்திலை வேரிலிருந்து, இருவித்திலை தண்டினை எவ்வாறு வேறுபடுத்தி அறிவாய்?</t>
+  </si>
+  <si>
+    <t>பாலிசேடு பாரங்ககைமா கீழ்க்கண்ட எந்த தாவர இலையில் காணப்படுவதில்லை</t>
+  </si>
+  <si>
+    <t>விதை முளைத்தலின் போது கரு அச்சு வளர்ச்சியானது விதை வெளிஉறையிலிருந்து வெளிவருகிறது.</t>
+  </si>
+  <si>
+    <t>கீழ்க்கண்ட எந்த தாவரத்தில் பல அடுக்கு புறத்தோல் காணப்படுகிறது</t>
+  </si>
+  <si>
+    <t>கீழ்க்கண்டவற்றில் எது உயிரற்ற செல்களை கொண்டது</t>
+  </si>
+  <si>
+    <t>சேதமுற்ற செல்களை சரி செய்வதற்கான செயலில் பங்கேற்பது</t>
+  </si>
+  <si>
+    <t>வேர் ஆக்குத்திசுவில் உறக்கமைய பகுதியின் வேலை யாது?</t>
+  </si>
+  <si>
+    <t>முதிர்ச்சி அடைவதற்கு தேவையான உணவினை சேமிக்கும் பகுதி</t>
+  </si>
+  <si>
+    <t>ஆக்குத்திசுவில் சேதமுற்ற செல்களை புதுப்பிக்க தேவையான சேமிக்கும் பகுதி</t>
+  </si>
+  <si>
+    <t>கீழ்க்கண்ட திசுக்களில் எது உயிருள்ள செல்களை கொண்டது</t>
+  </si>
+  <si>
+    <t>சல்லடை செல்கள்</t>
+  </si>
+  <si>
+    <t>சைலக் குழாய்கள்</t>
+  </si>
+  <si>
+    <t>காயங்களிலிருந்து சேதப்படுத்தப்பட்ட திசுக்களை புதுப்பிப்பது</t>
+  </si>
+  <si>
+    <t>கீழ்ப்புற ஆக்குத்திசு</t>
+  </si>
+  <si>
+    <t>சிறப்பான புறத்தோல் செல்களில் காப்பு செல்களை சூழ்ந்து காணப்படும் செல்கள்</t>
+  </si>
+  <si>
+    <t>பி-புரோட்டின் இதில் காணப்படுகிறது</t>
+  </si>
+  <si>
+    <t>சல்லடை குழாய்</t>
+  </si>
+  <si>
+    <t>செல் பிரிதல், செல் முதிர்ச்சி அடைதல், செல்பெரிதாகுதல், வேர் மூடி</t>
+  </si>
+  <si>
+    <t>கீழ்க்கண்டவற்றில் எது பக்க ஆக்குத்திசு இல்லை</t>
+  </si>
+  <si>
+    <t>கூற்று மற்றும் காரணம் இரண்டும் சரி. காரணம்
+கூற்றுக்கு சரியான விளக்கம்</t>
+  </si>
+  <si>
+    <t>கூற்று மற்றும் காரணம் இரண்டும் சரி. காரணம்
+கூற்றுக்கு சரியான விளக்கமல்ல</t>
+  </si>
+  <si>
+    <t>கூற்று சரி ஆனால் காரணம் தவறு</t>
+  </si>
+  <si>
+    <t>கூற்று மற்றும் காரணம் தவறு</t>
+  </si>
+  <si>
+    <t>கூற்று: நீர்முழ்கிய நீர் தாவரங்களில் கடத்து
+கூறுகளான சைலம் மிகவும் குறைந்த அளவே
+காணப்படுகிறது.
+காரணம்: நீர் தாவரங்கள் நீரில் வாழ்கிறது. எனவே திசுக்கள் தேவைப்படுவதில்லை.
+கீழ்க்கண்ட காரணங்களில் சரியானதை தேர்ந்தெடு</t>
+  </si>
+  <si>
+    <t>கூற்று : ஒளிச்சேர்க்கையின் போது தயாரிக்கும் உணவு பொருளானது தாவரங்களில் சல்லடை குழாய்களின் வழியே நீண்ட தூரம் கடத்தப்படுகிறது.
+காரணம்: முதிர்ந்த சல்லடை குழாய்கள் பகுதி சைட்டோ பிளாசத்தையும் துளைகளையுடைய சல்லடை தட்டையும் கொண்டுள்ளது</t>
   </si>
 </sst>
 </file>
@@ -2571,10 +2594,10 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table12456789" displayName="Table12456789" ref="A1:L162" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L162" xr:uid="{B87B73D2-1892-42FC-AF99-5D4AA2FFE751}">
+  <autoFilter ref="A1:L162" xr:uid="{E3A1EA2E-9DB3-4D64-95FA-6BB16DB79449}">
     <filterColumn colId="11">
       <filters>
-        <filter val="செல் உயிரியல் மற்றும் உயிரி மூலக்கூறுகள்"/>
+        <filter val="தாவர உள்ளமைப்பியல்"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2963,7 +2986,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -2972,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -2992,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -3008,7 +3031,7 @@
         <v>326</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -3025,7 +3048,7 @@
         <v>2017</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>16</v>
@@ -3034,7 +3057,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4">
@@ -3044,7 +3067,7 @@
         <v>326</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -3080,7 +3103,7 @@
         <v>326</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
@@ -3088,7 +3111,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
@@ -3116,7 +3139,7 @@
         <v>326</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3152,7 +3175,7 @@
         <v>326</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -3160,7 +3183,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
@@ -3188,7 +3211,7 @@
         <v>326</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -3224,7 +3247,7 @@
         <v>326</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3260,7 +3283,7 @@
         <v>326</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -3277,16 +3300,16 @@
         <v>2017</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
@@ -3296,7 +3319,7 @@
         <v>326</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -3332,7 +3355,7 @@
         <v>326</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -3368,7 +3391,7 @@
         <v>326</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3404,7 +3427,7 @@
         <v>326</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -3440,7 +3463,7 @@
         <v>326</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3476,7 +3499,7 @@
         <v>327</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -3499,7 +3522,7 @@
         <v>75</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>76</v>
@@ -3512,7 +3535,7 @@
         <v>327</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3548,7 +3571,7 @@
         <v>327</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3556,7 +3579,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>82</v>
@@ -3584,7 +3607,7 @@
         <v>327</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3620,7 +3643,7 @@
         <v>327</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -3656,7 +3679,7 @@
         <v>327</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3664,7 +3687,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>97</v>
@@ -3692,7 +3715,7 @@
         <v>327</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3728,7 +3751,7 @@
         <v>327</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3745,13 +3768,13 @@
         <v>2016</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>106</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>107</v>
@@ -3764,7 +3787,7 @@
         <v>327</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -3772,7 +3795,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>97</v>
@@ -3781,7 +3804,7 @@
         <v>2007</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>108</v>
@@ -3800,7 +3823,7 @@
         <v>327</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -3836,7 +3859,7 @@
         <v>327</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3872,7 +3895,7 @@
         <v>327</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3889,16 +3912,16 @@
         <v>2016</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>122</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
@@ -3908,7 +3931,7 @@
         <v>328</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3928,7 +3951,7 @@
         <v>124</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>125</v>
@@ -3944,7 +3967,7 @@
         <v>328</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -3980,7 +4003,7 @@
         <v>328</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4006,7 +4029,7 @@
         <v>135</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4">
@@ -4016,7 +4039,7 @@
         <v>328</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4024,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>23</v>
@@ -4052,7 +4075,7 @@
         <v>328</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4088,7 +4111,7 @@
         <v>328</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4124,7 +4147,7 @@
         <v>328</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -4137,16 +4160,16 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>151</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4">
@@ -4156,7 +4179,7 @@
         <v>328</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4192,7 +4215,7 @@
         <v>328</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4228,7 +4251,7 @@
         <v>328</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4236,7 +4259,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>23</v>
@@ -4264,7 +4287,7 @@
         <v>328</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -4300,7 +4323,7 @@
         <v>328</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4336,7 +4359,7 @@
         <v>328</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4344,7 +4367,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>11</v>
@@ -4372,7 +4395,7 @@
         <v>328</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -4392,7 +4415,7 @@
         <v>177</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>178</v>
@@ -4408,7 +4431,7 @@
         <v>328</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4416,7 +4439,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>97</v>
@@ -4444,7 +4467,7 @@
         <v>328</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4476,7 +4499,7 @@
         <v>329</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4512,7 +4535,7 @@
         <v>329</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -4520,7 +4543,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>97</v>
@@ -4548,7 +4571,7 @@
         <v>329</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4584,7 +4607,7 @@
         <v>329</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -4616,7 +4639,7 @@
         <v>329</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -4624,7 +4647,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>203</v>
@@ -4652,7 +4675,7 @@
         <v>329</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4684,7 +4707,7 @@
         <v>329</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -4710,7 +4733,7 @@
         <v>212</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4">
@@ -4720,7 +4743,7 @@
         <v>329</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4756,10 +4779,10 @@
         <v>329</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4792,10 +4815,10 @@
         <v>329</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4828,10 +4851,10 @@
         <v>329</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4854,7 +4877,7 @@
         <v>231</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4">
@@ -4864,15 +4887,15 @@
         <v>329</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>223</v>
@@ -4900,15 +4923,15 @@
         <v>329</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>223</v>
@@ -4917,7 +4940,7 @@
         <v>2006</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>236</v>
@@ -4936,15 +4959,15 @@
         <v>329</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>223</v>
@@ -4972,10 +4995,10 @@
         <v>329</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5008,10 +5031,10 @@
         <v>329</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5044,10 +5067,10 @@
         <v>330</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5080,10 +5103,10 @@
         <v>330</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5116,10 +5139,10 @@
         <v>330</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5152,10 +5175,10 @@
         <v>330</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5188,10 +5211,10 @@
         <v>330</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5224,10 +5247,10 @@
         <v>330</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5260,10 +5283,10 @@
         <v>330</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -5296,10 +5319,10 @@
         <v>330</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -5328,10 +5351,10 @@
         <v>330</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -5364,10 +5387,10 @@
         <v>330</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -5400,10 +5423,10 @@
         <v>330</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -5436,10 +5459,10 @@
         <v>330</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -5472,15 +5495,15 @@
         <v>330</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>306</v>
+        <v>769</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>23</v>
@@ -5489,16 +5512,16 @@
         <v>2015</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4">
@@ -5508,15 +5531,15 @@
         <v>330</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>311</v>
+        <v>770</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>23</v>
@@ -5525,16 +5548,16 @@
         <v>2014</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4">
@@ -5544,15 +5567,15 @@
         <v>331</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>23</v>
@@ -5561,16 +5584,16 @@
         <v>2010</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4">
@@ -5580,29 +5603,29 @@
         <v>331</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4">
@@ -5612,15 +5635,15 @@
         <v>331</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>326</v>
+        <v>771</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>23</v>
@@ -5629,16 +5652,16 @@
         <v>2008</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4">
@@ -5648,15 +5671,15 @@
         <v>331</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>23</v>
@@ -5665,16 +5688,16 @@
         <v>2009</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4">
@@ -5684,15 +5707,15 @@
         <v>331</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>336</v>
+        <v>772</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>23</v>
@@ -5701,16 +5724,16 @@
         <v>2009</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4">
@@ -5720,15 +5743,15 @@
         <v>331</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>223</v>
@@ -5737,16 +5760,16 @@
         <v>2009</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4">
@@ -5756,33 +5779,33 @@
         <v>331</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4">
@@ -5792,15 +5815,15 @@
         <v>331</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>23</v>
@@ -5809,16 +5832,16 @@
         <v>2008</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4">
@@ -5828,15 +5851,15 @@
         <v>331</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>23</v>
@@ -5845,16 +5868,16 @@
         <v>2007</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>361</v>
+        <v>773</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4">
@@ -5864,15 +5887,15 @@
         <v>331</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>363</v>
+        <v>789</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>23</v>
@@ -5881,16 +5904,16 @@
         <v>2010</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4">
@@ -5900,15 +5923,15 @@
         <v>331</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>23</v>
@@ -5917,16 +5940,16 @@
         <v>2007</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4">
@@ -5936,15 +5959,15 @@
         <v>331</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>23</v>
@@ -5953,16 +5976,16 @@
         <v>2004</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>376</v>
+        <v>788</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4">
@@ -5972,15 +5995,15 @@
         <v>331</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>23</v>
@@ -5989,16 +6012,16 @@
         <v>2003</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4">
@@ -6008,15 +6031,15 @@
         <v>332</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>382</v>
+        <v>786</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>23</v>
@@ -6025,16 +6048,16 @@
         <v>2000</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>385</v>
+        <v>787</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4">
@@ -6044,33 +6067,33 @@
         <v>332</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>387</v>
+        <v>785</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D88" s="4">
         <v>2016</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4">
@@ -6080,55 +6103,83 @@
         <v>332</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
+        <v>794</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" s="4">
+        <v>2010</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>793</v>
+      </c>
       <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
+      <c r="J89" s="4">
+        <v>3</v>
+      </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+        <v>795</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>793</v>
+      </c>
       <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>244</v>
@@ -6137,16 +6188,16 @@
         <v>2016</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4">
@@ -6156,15 +6207,15 @@
         <v>332</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>244</v>
@@ -6173,16 +6224,16 @@
         <v>2016</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4">
@@ -6192,15 +6243,15 @@
         <v>332</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>404</v>
+        <v>783</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>244</v>
@@ -6209,16 +6260,16 @@
         <v>2013</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>405</v>
+        <v>784</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4">
@@ -6228,15 +6279,15 @@
         <v>332</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>409</v>
+        <v>780</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>244</v>
@@ -6245,16 +6296,16 @@
         <v>2012</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>410</v>
+        <v>782</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>412</v>
+        <v>781</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4">
@@ -6264,15 +6315,15 @@
         <v>332</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>414</v>
+        <v>777</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>244</v>
@@ -6281,16 +6332,16 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>415</v>
+        <v>778</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>417</v>
+        <v>779</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4">
@@ -6300,15 +6351,15 @@
         <v>332</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>244</v>
@@ -6317,16 +6368,16 @@
         <v>2011</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>423</v>
+        <v>776</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4">
@@ -6336,15 +6387,15 @@
         <v>332</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>424</v>
+        <v>775</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>11</v>
@@ -6353,16 +6404,16 @@
         <v>2017</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4">
@@ -6372,15 +6423,15 @@
         <v>332</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>11</v>
@@ -6389,16 +6440,16 @@
         <v>2017</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4">
@@ -6408,33 +6459,33 @@
         <v>332</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>432</v>
+        <v>774</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D99" s="4">
         <v>2012</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4">
@@ -6444,7 +6495,7 @@
         <v>332</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -6452,7 +6503,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>11</v>
@@ -6461,16 +6512,16 @@
         <v>2017</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4">
@@ -6480,7 +6531,7 @@
         <v>332</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -6488,7 +6539,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>11</v>
@@ -6497,16 +6548,16 @@
         <v>2015</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4">
@@ -6516,7 +6567,7 @@
         <v>333</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6524,25 +6575,25 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="D102" s="4">
         <v>2000</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4">
@@ -6552,7 +6603,7 @@
         <v>333</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6560,25 +6611,25 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="D103" s="4">
         <v>2001</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4">
@@ -6588,7 +6639,7 @@
         <v>333</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -6596,25 +6647,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="D104" s="4">
         <v>2002</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4">
@@ -6624,7 +6675,7 @@
         <v>333</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6632,25 +6683,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D105" s="4">
         <v>2002</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4">
@@ -6660,7 +6711,7 @@
         <v>333</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -6668,7 +6719,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>244</v>
@@ -6677,16 +6728,16 @@
         <v>2006</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4">
@@ -6696,7 +6747,7 @@
         <v>333</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -6704,7 +6755,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>11</v>
@@ -6713,16 +6764,16 @@
         <v>2015</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="I107" s="4"/>
       <c r="J107" s="4">
@@ -6732,7 +6783,7 @@
         <v>333</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -6740,25 +6791,25 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="D108" s="4">
         <v>1998</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="4">
@@ -6768,7 +6819,7 @@
         <v>333</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6776,25 +6827,25 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="D109" s="4">
         <v>2002</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4">
@@ -6804,7 +6855,7 @@
         <v>333</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6812,25 +6863,25 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D110" s="4">
         <v>2002</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4">
@@ -6840,7 +6891,7 @@
         <v>333</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -6848,25 +6899,25 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="D111" s="4">
         <v>2003</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4">
@@ -6876,7 +6927,7 @@
         <v>333</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6884,25 +6935,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="D112" s="4">
         <v>2000</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4">
@@ -6912,7 +6963,7 @@
         <v>333</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -6920,25 +6971,25 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4">
@@ -6948,7 +6999,7 @@
         <v>333</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -6956,25 +7007,25 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="D114" s="4">
         <v>1996</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4">
@@ -6984,7 +7035,7 @@
         <v>333</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -6992,25 +7043,25 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="D115" s="4">
         <v>2016</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4">
@@ -7020,7 +7071,7 @@
         <v>333</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -7028,7 +7079,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>223</v>
@@ -7037,16 +7088,16 @@
         <v>2007</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4">
@@ -7056,7 +7107,7 @@
         <v>334</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -7064,25 +7115,25 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="D117" s="4">
         <v>2006</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4">
@@ -7092,7 +7143,7 @@
         <v>334</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -7100,25 +7151,25 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="D118" s="4">
         <v>2006</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="4">
@@ -7128,7 +7179,7 @@
         <v>334</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -7136,7 +7187,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>244</v>
@@ -7145,16 +7196,16 @@
         <v>2008</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4">
@@ -7164,7 +7215,7 @@
         <v>334</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -7172,21 +7223,21 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="I120" s="4"/>
       <c r="J120" s="4">
@@ -7196,7 +7247,7 @@
         <v>334</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7204,25 +7255,25 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="D121" s="4">
         <v>2007</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4">
@@ -7232,7 +7283,7 @@
         <v>334</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -7240,25 +7291,25 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="D122" s="4">
         <v>2011</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="I122" s="4"/>
       <c r="J122" s="4">
@@ -7268,7 +7319,7 @@
         <v>334</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7276,7 +7327,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>23</v>
@@ -7285,16 +7336,16 @@
         <v>2014</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="I123" s="4"/>
       <c r="J123" s="4">
@@ -7304,7 +7355,7 @@
         <v>334</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -7312,7 +7363,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>23</v>
@@ -7321,16 +7372,16 @@
         <v>2013</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4">
@@ -7340,7 +7391,7 @@
         <v>334</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -7348,7 +7399,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>23</v>
@@ -7357,16 +7408,16 @@
         <v>2010</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="I125" s="4"/>
       <c r="J125" s="4">
@@ -7376,7 +7427,7 @@
         <v>334</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7384,7 +7435,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>244</v>
@@ -7393,16 +7444,16 @@
         <v>1980</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="I126" s="4"/>
       <c r="J126" s="4">
@@ -7412,7 +7463,7 @@
         <v>334</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7420,7 +7471,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>223</v>
@@ -7429,16 +7480,16 @@
         <v>1993</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="I127" s="4"/>
       <c r="J127" s="4">
@@ -7448,7 +7499,7 @@
         <v>334</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -7456,7 +7507,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>23</v>
@@ -7468,13 +7519,13 @@
         <v>250</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="I128" s="4"/>
       <c r="J128" s="4">
@@ -7484,7 +7535,7 @@
         <v>334</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7492,7 +7543,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>23</v>
@@ -7501,16 +7552,16 @@
         <v>2008</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="I129" s="4"/>
       <c r="J129" s="4">
@@ -7520,7 +7571,7 @@
         <v>334</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -7528,7 +7579,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>23</v>
@@ -7537,16 +7588,16 @@
         <v>2010</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="I130" s="4"/>
       <c r="J130" s="4">
@@ -7556,7 +7607,7 @@
         <v>334</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7564,25 +7615,25 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="D131" s="4">
         <v>2007</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="I131" s="4"/>
       <c r="J131" s="4">
@@ -7592,7 +7643,7 @@
         <v>334</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7600,7 +7651,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>23</v>
@@ -7609,16 +7660,16 @@
         <v>2005</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="I132" s="4"/>
       <c r="J132" s="4">
@@ -7628,7 +7679,7 @@
         <v>335</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7636,7 +7687,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>11</v>
@@ -7645,16 +7696,16 @@
         <v>2017</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="4">
@@ -7664,7 +7715,7 @@
         <v>335</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="144" hidden="1" x14ac:dyDescent="0.3">
@@ -7672,7 +7723,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>11</v>
@@ -7681,16 +7732,16 @@
         <v>2017</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="I134" s="4"/>
       <c r="J134" s="4">
@@ -7700,7 +7751,7 @@
         <v>335</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -7708,25 +7759,25 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="D135" s="4">
         <v>2016</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="I135" s="4"/>
       <c r="J135" s="4">
@@ -7736,7 +7787,7 @@
         <v>335</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -7744,25 +7795,25 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="D136" s="4">
         <v>2016</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="I136" s="4"/>
       <c r="J136" s="4">
@@ -7772,7 +7823,7 @@
         <v>335</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7780,25 +7831,25 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="D137" s="4">
         <v>2016</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="I137" s="4"/>
       <c r="J137" s="4">
@@ -7808,7 +7859,7 @@
         <v>335</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -7816,22 +7867,22 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="D138" s="4">
         <v>2016</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>250</v>
@@ -7844,7 +7895,7 @@
         <v>335</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -7852,7 +7903,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>11</v>
@@ -7861,16 +7912,16 @@
         <v>2016</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="I139" s="4"/>
       <c r="J139" s="4">
@@ -7880,7 +7931,7 @@
         <v>335</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -7888,25 +7939,25 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4">
@@ -7916,7 +7967,7 @@
         <v>335</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
@@ -7924,7 +7975,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>11</v>
@@ -7933,16 +7984,16 @@
         <v>2017</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4">
@@ -7952,7 +8003,7 @@
         <v>335</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -7960,7 +8011,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -7974,7 +8025,7 @@
         <v>335</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -7982,7 +8033,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>23</v>
@@ -7991,16 +8042,16 @@
         <v>2010</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="I143" s="4"/>
       <c r="J143" s="4">
@@ -8010,7 +8061,7 @@
         <v>335</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -8018,25 +8069,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="D144" s="4">
         <v>1980</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="I144" s="4"/>
       <c r="J144" s="4">
@@ -8046,7 +8097,7 @@
         <v>336</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -8054,25 +8105,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="D145" s="4">
         <v>1980</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>670</v>
+        <v>647</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="I145" s="4"/>
       <c r="J145" s="4">
@@ -8082,7 +8133,7 @@
         <v>336</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8090,25 +8141,25 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="D146" s="4">
         <v>1984</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>675</v>
+        <v>652</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="I146" s="4"/>
       <c r="J146" s="4">
@@ -8118,7 +8169,7 @@
         <v>336</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8126,7 +8177,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>677</v>
+        <v>654</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>223</v>
@@ -8135,16 +8186,16 @@
         <v>1984</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>680</v>
+        <v>657</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4">
@@ -8154,7 +8205,7 @@
         <v>336</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8162,7 +8213,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>223</v>
@@ -8171,16 +8222,16 @@
         <v>1989</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>684</v>
+        <v>661</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>685</v>
+        <v>662</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="I148" s="4"/>
       <c r="J148" s="4">
@@ -8190,7 +8241,7 @@
         <v>336</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8198,25 +8249,25 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="D149" s="4">
         <v>2000</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4">
@@ -8226,7 +8277,7 @@
         <v>336</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -8234,25 +8285,25 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
       <c r="D150" s="4">
         <v>2003</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>697</v>
+        <v>674</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="I150" s="4"/>
       <c r="J150" s="4">
@@ -8262,7 +8313,7 @@
         <v>336</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -8270,7 +8321,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>244</v>
@@ -8279,16 +8330,16 @@
         <v>2004</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="I151" s="4"/>
       <c r="J151" s="4">
@@ -8298,7 +8349,7 @@
         <v>336</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -8306,7 +8357,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>223</v>
@@ -8315,16 +8366,16 @@
         <v>2004</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="I152" s="4"/>
       <c r="J152" s="4">
@@ -8334,7 +8385,7 @@
         <v>336</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8342,25 +8393,25 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="I153" s="4"/>
       <c r="J153" s="4">
@@ -8370,7 +8421,7 @@
         <v>336</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -8378,7 +8429,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>23</v>
@@ -8387,16 +8438,16 @@
         <v>2004</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4">
@@ -8406,7 +8457,7 @@
         <v>336</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -8414,25 +8465,25 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="D155" s="4">
         <v>2009</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="I155" s="4"/>
       <c r="J155" s="4">
@@ -8442,7 +8493,7 @@
         <v>336</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -8450,7 +8501,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>23</v>
@@ -8459,13 +8510,13 @@
         <v>2010</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>141</v>
@@ -8478,7 +8529,7 @@
         <v>336</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8486,7 +8537,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>23</v>
@@ -8495,16 +8546,16 @@
         <v>2010</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4">
@@ -8514,7 +8565,7 @@
         <v>336</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -8522,7 +8573,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>726</v>
+        <v>703</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>23</v>
@@ -8531,16 +8582,16 @@
         <v>2010</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="I158" s="4"/>
       <c r="J158" s="4">
@@ -8550,7 +8601,7 @@
         <v>336</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -8558,7 +8609,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>23</v>
@@ -8567,16 +8618,16 @@
         <v>2008</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>732</v>
+        <v>709</v>
       </c>
       <c r="I159" s="4"/>
       <c r="J159" s="4">
@@ -8586,7 +8637,7 @@
         <v>336</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -8594,7 +8645,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>11</v>
@@ -8603,16 +8654,16 @@
         <v>2016</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
       <c r="I160" s="4"/>
       <c r="J160" s="4">
@@ -8622,7 +8673,7 @@
         <v>336</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8630,7 +8681,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>738</v>
+        <v>715</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>11</v>
@@ -8639,16 +8690,16 @@
         <v>2016</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>739</v>
+        <v>716</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>741</v>
+        <v>718</v>
       </c>
       <c r="I161" s="4"/>
       <c r="J161" s="4">
@@ -8658,7 +8709,7 @@
         <v>336</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -8666,7 +8717,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>742</v>
+        <v>719</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>11</v>
@@ -8675,16 +8726,16 @@
         <v>2016</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>743</v>
+        <v>720</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="I162" s="4"/>
       <c r="J162" s="4">
@@ -8694,7 +8745,7 @@
         <v>336</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
